--- a/biology/Botanique/Distylodon_sonkeanum/Distylodon_sonkeanum.xlsx
+++ b/biology/Botanique/Distylodon_sonkeanum/Distylodon_sonkeanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Distylodon sonkeanum est une plante endémique du Cameroun, du genre Distylodon de la famille des Orchidaceae[1]. Distylodon sonkeanum Droissart, Stévart &amp; P.J.Cribb se différencie de Distylodon comptum Summerh. par plusieurs fleurs inflorescences, des feuilles plus longues et éperonnes, une pédicelle plus courte et des ovaires. La plante a été localisée à Bifa, le long d’une piste de chasseurs entre les rivières Nyété et Nyamefoo, se trouvant sur la route Kribi-Ebolowa, à 5 km de Zingui.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Distylodon sonkeanum est une plante endémique du Cameroun, du genre Distylodon de la famille des Orchidaceae. Distylodon sonkeanum Droissart, Stévart &amp; P.J.Cribb se différencie de Distylodon comptum Summerh. par plusieurs fleurs inflorescences, des feuilles plus longues et éperonnes, une pédicelle plus courte et des ovaires. La plante a été localisée à Bifa, le long d’une piste de chasseurs entre les rivières Nyété et Nyamefoo, se trouvant sur la route Kribi-Ebolowa, à 5 km de Zingui.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète d'espèces « sonkeanum » désigne le Professeur Bonaventure Sonké de l'Université de Yaoundé I, un taxonomiste internationalement reconnu, spécialisé dans la famille des Rubiaceae[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète d'espèces « sonkeanum » désigne le Professeur Bonaventure Sonké de l'Université de Yaoundé I, un taxonomiste internationalement reconnu, spécialisé dans la famille des Rubiaceae.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Distylodon sonkeanum est une plante épiphyte de taille naine ayant une courte tige feuillue et non ramifiée d'une longueur maximale de 8 mm et de 2 à 2,5 mm de diamètre. Les nombreuses racines, distribuées à la base de la plante, ont plus de 120 mm de long, 1 à 1.8 mm de diamètre. La plante a au maximum 5 feuilles d'une taille de 25 à 37 mm de long et 6 à 11 mm de large. Les feuilles sont obliques, étroitement elliptiques, légèrement coriaces, et ont des marges entières et une nervation réticulée indistincte et irrégulière. Les inflorescences de 2 à 5 fleurs ont jusqu'à 41 mm de long. Les bractées tubulaires ont jusqu'à 1,2 mm de long. Les fleurs vertes ont 17 à 25 mm de long et 6 à 8 mm de large. Les ovaires et pédoncules ont 5-7 mm de long. Les dorsale sépales mesurent 4 à 7 de long et 1,6 à 1,9 mm de large. Les pétales sont lancéolées linéaires, acuminées, légèrement inclinées, avec des marges entières[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Distylodon sonkeanum est une plante épiphyte de taille naine ayant une courte tige feuillue et non ramifiée d'une longueur maximale de 8 mm et de 2 à 2,5 mm de diamètre. Les nombreuses racines, distribuées à la base de la plante, ont plus de 120 mm de long, 1 à 1.8 mm de diamètre. La plante a au maximum 5 feuilles d'une taille de 25 à 37 mm de long et 6 à 11 mm de large. Les feuilles sont obliques, étroitement elliptiques, légèrement coriaces, et ont des marges entières et une nervation réticulée indistincte et irrégulière. Les inflorescences de 2 à 5 fleurs ont jusqu'à 41 mm de long. Les bractées tubulaires ont jusqu'à 1,2 mm de long. Les fleurs vertes ont 17 à 25 mm de long et 6 à 8 mm de large. Les ovaires et pédoncules ont 5-7 mm de long. Les dorsale sépales mesurent 4 à 7 de long et 1,6 à 1,9 mm de large. Les pétales sont lancéolées linéaires, acuminées, légèrement inclinées, avec des marges entières.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution, habitat et préservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Distylodon sonkeanum est endémique à la zone côtière du domaine de la Basse Guinée de la région guinéo-congolaise. Sa présence restreinte a été constatée dans une localité unique de la Région du Sud du Cameroun. Sa population unique connue à ce jour a été trouvée dans la forêt à feuilles persistantes de plaine à 100 m d'altitude, avec une croissance épiphyte sur une branche tombée. Considérée comme en danger critique d'extinction[3], l'espèce est menacée par la déforestation pour l'exploitation forestière, les plantations de palmier à huile (Elaeis guineensis) et d'hévéa (Hevea brasiliensis) de même que les pratiques de l'agriculture itinérante[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Distylodon sonkeanum est endémique à la zone côtière du domaine de la Basse Guinée de la région guinéo-congolaise. Sa présence restreinte a été constatée dans une localité unique de la Région du Sud du Cameroun. Sa population unique connue à ce jour a été trouvée dans la forêt à feuilles persistantes de plaine à 100 m d'altitude, avec une croissance épiphyte sur une branche tombée. Considérée comme en danger critique d'extinction, l'espèce est menacée par la déforestation pour l'exploitation forestière, les plantations de palmier à huile (Elaeis guineensis) et d'hévéa (Hevea brasiliensis) de même que les pratiques de l'agriculture itinérante.
 </t>
         </is>
       </c>
